--- a/biology/Botanique/Noctuelle_des_moissons/Noctuelle_des_moissons.xlsx
+++ b/biology/Botanique/Noctuelle_des_moissons/Noctuelle_des_moissons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrotis segetum
 La Noctuelle des moissons (Agrotis segetum), appelée aussi « Moissonneuse »[réf. souhaitée], est une espèce d'insectes de l'ordre des lépidoptères, de la famille des Noctuidae, originaire de l'Ancien Monde.
@@ -515,10 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-L'imago de la Noctuelle des moissons est un papillon de 4 cm d'envergure, aux ailes antérieures gris brun portant des dessins plus clairs bordés de noir ; les ailes postérieures sont blanches chez le mâle, grises chez la femelle.
-Chenille
-La larve est une chenille brun grisâtre, appelée souvent « ver gris », qui peut atteindre 5 cm de long. Ces chenilles s'enroulent sur elles-mêmes et se laissent tomber à terre dès qu'elles sont dérangées.
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago de la Noctuelle des moissons est un papillon de 4 cm d'envergure, aux ailes antérieures gris brun portant des dessins plus clairs bordés de noir ; les ailes postérieures sont blanches chez le mâle, grises chez la femelle.
 </t>
         </is>
       </c>
@@ -544,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cycle biologique</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce papillon connaît une ou plusieurs générations par an. La chenille hiverne dans le sol et se nymphose en avril pour donner naissance à une nouvelle génération d'adultes.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La larve est une chenille brun grisâtre, appelée souvent « ver gris », qui peut atteindre 5 cm de long. Ces chenilles s'enroulent sur elles-mêmes et se laissent tomber à terre dès qu'elles sont dérangées.
 </t>
         </is>
       </c>
@@ -575,13 +596,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dégâts</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles s'attaquent aux feuilles des différentes plantes hôtes, en les dévorant et en les sectionnant à la base. Actives la nuit, elles attaquent également le collet des plantes, notamment des betteraves, et les tubercules des pommes de terre.
-Les dégâts peuvent être très importants en cas de pullulation.
+          <t>Cycle biologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon connaît une ou plusieurs générations par an. La chenille hiverne dans le sol et se nymphose en avril pour donner naissance à une nouvelle génération d'adultes.
 </t>
         </is>
       </c>
@@ -607,10 +629,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dégâts</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles s'attaquent aux feuilles des différentes plantes hôtes, en les dévorant et en les sectionnant à la base. Actives la nuit, elles attaquent également le collet des plantes, notamment des betteraves, et les tubercules des pommes de terre.
+Les dégâts peuvent être très importants en cas de pullulation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Noctuelle_des_moissons</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noctuelle_des_moissons</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>À titre préventif : utiliser des plantes répulsives ;
 Piégeage des adultes ;
@@ -619,33 +677,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Noctuelle_des_moissons</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Noctuelle_des_moissons</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 avril 2023)[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 avril 2023) :
 sous-espèce Agrotis segetum pallida Staudinger, 1881</t>
         </is>
       </c>
